--- a/parse_nzte_stockable/_Appendix.C_Full.detail.stocktake.xlsx
+++ b/parse_nzte_stockable/_Appendix.C_Full.detail.stocktake.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentint/Desktop/parse_koray_atalag_list/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentint/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1380" windowWidth="36300" windowHeight="17540"/>
+    <workbookView xWindow="-38400" yWindow="-2940" windowWidth="38400" windowHeight="22280"/>
   </bookViews>
   <sheets>
     <sheet name="Intv.form_sort.20130628" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4314" uniqueCount="1422">
   <si>
     <t>DataSet(s)</t>
   </si>
@@ -4126,6 +4126,312 @@
   </si>
   <si>
     <t>tags_</t>
+  </si>
+  <si>
+    <t>http://www.ash.org.nz/</t>
+  </si>
+  <si>
+    <t>Action on Smoking and Health</t>
+  </si>
+  <si>
+    <t>Australian and New Zealand Society of Cardiac and Thoracic Surgeons</t>
+  </si>
+  <si>
+    <t>https://anzscts.org/</t>
+  </si>
+  <si>
+    <t>http://www.researchnz.com/</t>
+  </si>
+  <si>
+    <t>Research New Zealand</t>
+  </si>
+  <si>
+    <t>alcohol|addiction</t>
+  </si>
+  <si>
+    <t>http://www.midlandcancernetwork.org.nz/</t>
+  </si>
+  <si>
+    <t>Midland Cancer Network</t>
+  </si>
+  <si>
+    <t>https://www.sialliance.health.nz/our-priorities/southern-cancer-network/</t>
+  </si>
+  <si>
+    <t>Southern Cancer Network</t>
+  </si>
+  <si>
+    <t>cancer|oncology|pulmonology</t>
+  </si>
+  <si>
+    <t>cancer|oncology|gastroenterology</t>
+  </si>
+  <si>
+    <t>Canterbury and West Coast District Health Board</t>
+  </si>
+  <si>
+    <t>http://www.westcoastdhb.org.nz/</t>
+  </si>
+  <si>
+    <t>emergency|hospital</t>
+  </si>
+  <si>
+    <t>inpatient|hospital</t>
+  </si>
+  <si>
+    <t>outpatient|hospital</t>
+  </si>
+  <si>
+    <t>waiting-time|hospital</t>
+  </si>
+  <si>
+    <t>rehabilitation|hospital</t>
+  </si>
+  <si>
+    <t>mental-health|hospital</t>
+  </si>
+  <si>
+    <t>hospital|referral</t>
+  </si>
+  <si>
+    <t>medication</t>
+  </si>
+  <si>
+    <t>medication|hospital</t>
+  </si>
+  <si>
+    <t>ambulance|hospital</t>
+  </si>
+  <si>
+    <t>elderly|hospital</t>
+  </si>
+  <si>
+    <t>pediatrics|hospital</t>
+  </si>
+  <si>
+    <t>image|hospital</t>
+  </si>
+  <si>
+    <t>lifestyle|nutrition|smoking|tobacco|addiction</t>
+  </si>
+  <si>
+    <t>http://www.cbg.co.nz/</t>
+  </si>
+  <si>
+    <t>http://www.dpt.org.nz/</t>
+  </si>
+  <si>
+    <t>new-zealand labs-and-imaging-centres</t>
+  </si>
+  <si>
+    <t>http://www.dml.co.nz/</t>
+  </si>
+  <si>
+    <t>Diagnostic Medical Laboratory</t>
+  </si>
+  <si>
+    <t>https://www.drinfo.co.nz/</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>http://www.enigma.co.nz/2015/12/23/predict-enigma-view-university-of-auckland-looking-forward-to-2016/</t>
+  </si>
+  <si>
+    <t>Enigma</t>
+  </si>
+  <si>
+    <t>http://www.esr.cri.nz/</t>
+  </si>
+  <si>
+    <t>Institute of Environmental Science and Research</t>
+  </si>
+  <si>
+    <t>sti</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>http://www.flinders.edu.au/medicine/sites/ophthalmology/clinical/aus-nz-registry-of-advanced-glaucoma.cfm</t>
+  </si>
+  <si>
+    <t>ophthalmology</t>
+  </si>
+  <si>
+    <t>http://www.growingup.co.nz/en/access-to-guinz-data.html</t>
+  </si>
+  <si>
+    <t>Growing up in New Zealand</t>
+  </si>
+  <si>
+    <t>dermatology|sun</t>
+  </si>
+  <si>
+    <t>http://www.hpa.org.nz/</t>
+  </si>
+  <si>
+    <t>(ex) Health Sponsorship Council</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Management Agency</t>
+  </si>
+  <si>
+    <t>medication|pharmacy</t>
+  </si>
+  <si>
+    <t>Genetic Health Service NZ</t>
+  </si>
+  <si>
+    <t>http://www.genetichealthservice.org.nz/</t>
+  </si>
+  <si>
+    <t>genetics</t>
+  </si>
+  <si>
+    <t>https://www.plunket.org.nz/</t>
+  </si>
+  <si>
+    <t>new-zealand primary-community-care-providers</t>
+  </si>
+  <si>
+    <t>bioengineering</t>
+  </si>
+  <si>
+    <t>https://metrosouth.health.qld.gov.au/princess-alexandra-hospital</t>
+  </si>
+  <si>
+    <t>https://www.nzma.org.nz/journal/read-the-journal/all-issues/2010-2019/2016/vol-129-no-1439-5-august-2016/6959</t>
+  </si>
+  <si>
+    <t>New Zealand Social Science Data Service</t>
+  </si>
+  <si>
+    <t>http://www.nzssn.org.nz/</t>
+  </si>
+  <si>
+    <t>http://www.northerncancernetwork.org.nz/</t>
+  </si>
+  <si>
+    <t>Northern Cancer Network</t>
+  </si>
+  <si>
+    <t>http://www.whanautahi.com/</t>
+  </si>
+  <si>
+    <t>(ex) HSA Global</t>
+  </si>
+  <si>
+    <t>http://www.healthalliance.co.nz/</t>
+  </si>
+  <si>
+    <t>laboratory|radiology|pharmacy</t>
+  </si>
+  <si>
+    <t>rheumatology</t>
+  </si>
+  <si>
+    <t>https://www.auckland.ac.nz/en.html</t>
+  </si>
+  <si>
+    <t>http://www.labtests.co.nz/</t>
+  </si>
+  <si>
+    <t>laboratory|image</t>
+  </si>
+  <si>
+    <t>individual Primary Health Organizations</t>
+  </si>
+  <si>
+    <t>primary-care|claim</t>
+  </si>
+  <si>
+    <t>https://www.nursemaude.org.nz/</t>
+  </si>
+  <si>
+    <t>nurse|home-care</t>
+  </si>
+  <si>
+    <t>https://www.medibankhealth.com.au/</t>
+  </si>
+  <si>
+    <t>Medibank Health Solutions</t>
+  </si>
+  <si>
+    <t>https://www.auckland.ac.nz/</t>
+  </si>
+  <si>
+    <t>blood-donation</t>
+  </si>
+  <si>
+    <t>tobacco|smoking|addiction</t>
+  </si>
+  <si>
+    <t>cholesterol</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>tobacco|smoking|cardiology</t>
+  </si>
+  <si>
+    <t>tobacco|smoking|addiction|alcohol</t>
+  </si>
+  <si>
+    <t>car-crash</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>ulcer|medication</t>
+  </si>
+  <si>
+    <t>sport|global-health</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>social|research</t>
+  </si>
+  <si>
+    <t>social|research|qol|lifstyle</t>
+  </si>
+  <si>
+    <t>barthel-index|research|adl</t>
+  </si>
+  <si>
+    <t>qol|research|cardiology</t>
+  </si>
+  <si>
+    <t>freemasons|research</t>
+  </si>
+  <si>
+    <t>steroid|research</t>
+  </si>
+  <si>
+    <t>qol|research</t>
+  </si>
+  <si>
+    <t>radiology|research</t>
+  </si>
+  <si>
+    <t>adherence|research</t>
+  </si>
+  <si>
+    <t>nutrition|research</t>
+  </si>
+  <si>
+    <t>addiction|research</t>
+  </si>
+  <si>
+    <t>sport|lifestyle|research</t>
   </si>
 </sst>
 </file>
@@ -4493,14 +4799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:W287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="124" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B215" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomRight" activeCell="F286" sqref="F286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4590,7 +4895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="156" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -8013,16 +8318,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>1369</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>1170</v>
       </c>
+      <c r="D62" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>|nzte-report</v>
+        <v>medication|pharmacy|nzte-report</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>1370</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>19</v>
@@ -8073,16 +8387,25 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="B63" s="1" t="s">
+        <v>1369</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>1170</v>
       </c>
+      <c r="D63" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>|nzte-report</v>
+        <v>medication|hospital|nzte-report</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>1343</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>19</v>
@@ -8259,13 +8582,25 @@
         <v>270</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" ht="90" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>271</v>
       </c>
+      <c r="B66" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1230</v>
+      </c>
       <c r="E66" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>|nzte-report</v>
+        <v>genetics|nzte-report</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>1373</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>258</v>
@@ -9075,13 +9410,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="225" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:23" ht="225" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>379</v>
       </c>
+      <c r="B81" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1375</v>
+      </c>
       <c r="E81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>pediatrics|nzte-report</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>1184</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>380</v>
@@ -9132,13 +9479,25 @@
         <v>392</v>
       </c>
     </row>
-    <row r="82" spans="1:23" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:23" ht="120" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>393</v>
       </c>
+      <c r="B82" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>sti|nzte-report</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>1360</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>394</v>
@@ -9189,13 +9548,25 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:23" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:23" ht="90" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>408</v>
       </c>
+      <c r="B83" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>laboratory|nzte-report</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>1237</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>394</v>
@@ -9246,13 +9617,25 @@
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:23" ht="165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:23" ht="165" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>416</v>
       </c>
+      <c r="B84" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>disease|nzte-report</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>1361</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>394</v>
@@ -9360,16 +9743,25 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>431</v>
       </c>
+      <c r="B86" s="1" t="s">
+        <v>432</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>1171</v>
       </c>
+      <c r="D86" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>bioengineering|nzte-report</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>1376</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>394</v>
@@ -9423,13 +9815,25 @@
         <v>442</v>
       </c>
     </row>
-    <row r="87" spans="1:23" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:23" ht="240" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>443</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="E87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>cardiology|nzte-report</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>444</v>
@@ -9480,13 +9884,25 @@
         <v>455</v>
       </c>
     </row>
-    <row r="88" spans="1:23" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:23" ht="90" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>456</v>
       </c>
+      <c r="B88" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="E88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>nephrology|nzte-report</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>1315</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>444</v>
@@ -9501,13 +9917,25 @@
         <v>456</v>
       </c>
     </row>
-    <row r="89" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>458</v>
       </c>
+      <c r="B89" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="E89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>ophthalmology|nzte-report</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>1363</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>444</v>
@@ -9864,13 +10292,25 @@
         <v>81</v>
       </c>
     </row>
-    <row r="96" spans="1:23" ht="180" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:23" ht="180" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>476</v>
       </c>
+      <c r="B96" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>nephrology|nzte-report</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>1315</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>444</v>
@@ -9924,13 +10364,25 @@
         <v>490</v>
       </c>
     </row>
-    <row r="97" spans="1:23" ht="210" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="210" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>491</v>
       </c>
+      <c r="B97" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="E97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>cardiology|nzte-report</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>444</v>
@@ -9981,13 +10433,25 @@
         <v>502</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="150" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="150" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>503</v>
       </c>
+      <c r="B98" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>1257</v>
+      </c>
       <c r="E98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|nzte-report</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>1287</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>504</v>
@@ -10038,13 +10502,25 @@
         <v>513</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>514</v>
       </c>
+      <c r="B99" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>1257</v>
+      </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|nzte-report</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>1287</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>504</v>
@@ -10083,13 +10559,25 @@
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>517</v>
       </c>
+      <c r="B100" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>1257</v>
+      </c>
       <c r="E100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>alcohol|addiction|nzte-report</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>1326</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>504</v>
@@ -10128,13 +10616,25 @@
         <v>513</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>520</v>
       </c>
+      <c r="B101" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1257</v>
+      </c>
       <c r="E101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>lifestyle|nutrition|smoking|tobacco|addiction|nzte-report</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>1348</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>504</v>
@@ -10176,13 +10676,25 @@
         <v>513</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="180" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="180" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>526</v>
       </c>
+      <c r="B102" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>1257</v>
+      </c>
       <c r="E102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|nzte-report</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>1287</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>504</v>
@@ -10215,13 +10727,25 @@
         <v>529</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>530</v>
       </c>
+      <c r="B103" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>1257</v>
+      </c>
       <c r="E103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>dermatology|sun|nzte-report</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>1366</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>504</v>
@@ -10260,13 +10784,25 @@
         <v>513</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>534</v>
       </c>
+      <c r="B104" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>1257</v>
+      </c>
       <c r="E104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|nzte-report</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>1287</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>504</v>
@@ -11646,13 +12182,25 @@
         <v>624</v>
       </c>
     </row>
-    <row r="129" spans="1:23" ht="240" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:23" ht="240" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>625</v>
       </c>
+      <c r="B129" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>1257</v>
+      </c>
       <c r="E129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>primary-care|nzte-report</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>1214</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>504</v>
@@ -11670,13 +12218,25 @@
         <v>628</v>
       </c>
     </row>
-    <row r="130" spans="1:23" ht="409" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:23" ht="409" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>629</v>
       </c>
+      <c r="B130" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E130" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>|nzte-report</v>
+        <v>cancer|oncology|waiting-time|nzte-report</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>1225</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>19</v>
@@ -11697,13 +12257,25 @@
         <v>634</v>
       </c>
     </row>
-    <row r="131" spans="1:23" ht="409" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:23" ht="409" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>635</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E131" s="1" t="str">
         <f t="shared" ref="E131:E194" si="2">CONCATENATE(F131, "|", "nzte-report")</f>
-        <v>|nzte-report</v>
+        <v>cancer|oncology|pulmonology|nzte-report</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>1331</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>19</v>
@@ -11742,13 +12314,25 @@
         <v>643</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:23" ht="120" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>644</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>cancer|oncology|gastroenterology|nzte-report</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>1332</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>19</v>
@@ -11784,13 +12368,25 @@
         <v>649</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="180" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:23" ht="180" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>650</v>
       </c>
+      <c r="B133" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>cancer|oncology|gastroenterology|nzte-report</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>1332</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>19</v>
@@ -11826,13 +12422,25 @@
         <v>655</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="330" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="330" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>656</v>
       </c>
+      <c r="B134" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E134" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>cancer|oncology|waiting-time|nzte-report</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>1225</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
@@ -11862,13 +12470,25 @@
         <v>661</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:23" ht="255" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>662</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E135" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>cancer|oncology|nzte-report</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>1217</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>19</v>
@@ -11892,13 +12512,25 @@
         <v>665</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>666</v>
       </c>
+      <c r="B136" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E136" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>cancer|oncology|nzte-report</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>1217</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>19</v>
@@ -11916,13 +12548,25 @@
         <v>668</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>669</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E137" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>cancer|oncology|nzte-report</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>1217</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>19</v>
@@ -11937,13 +12581,25 @@
         <v>670</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:23" ht="90" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>671</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E138" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>cancer|oncology|gastroenterology|nzte-report</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>1332</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>19</v>
@@ -11958,13 +12614,25 @@
         <v>673</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:23" ht="165" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>674</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>1230</v>
+      </c>
       <c r="E139" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>global-health|nzte-report</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>1183</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>258</v>
@@ -12018,13 +12686,25 @@
         <v>688</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="90" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:23" ht="90" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>689</v>
       </c>
+      <c r="B140" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>1351</v>
+      </c>
       <c r="E140" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>laboratory|radiology|pharmacy|nzte-report</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>1386</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>690</v>
@@ -12078,13 +12758,25 @@
         <v>701</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="195" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:23" ht="195" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>702</v>
       </c>
+      <c r="B141" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>cancer|oncology|nzte-report</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>1217</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>444</v>
@@ -12186,13 +12878,25 @@
         <v>721</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>722</v>
       </c>
+      <c r="B143" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="E143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>rheumatology|nzte-report</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>1387</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>444</v>
@@ -12207,13 +12911,25 @@
         <v>722</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>723</v>
       </c>
+      <c r="B144" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>gp|primary-care|nzte-report</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>1288</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>19</v>
@@ -12264,16 +12980,25 @@
         <v>736</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>737</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>1302</v>
       </c>
+      <c r="C145" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>1175</v>
+      </c>
       <c r="E145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>primary-care|nzte-report</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>1214</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>19</v>
@@ -13116,7 +13841,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>765</v>
       </c>
@@ -13131,7 +13856,10 @@
       </c>
       <c r="E169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>254</v>
@@ -13185,7 +13913,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>767</v>
       </c>
@@ -13200,7 +13928,10 @@
       </c>
       <c r="E171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>254</v>
@@ -13326,13 +14057,25 @@
         <v>770</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>771</v>
       </c>
+      <c r="B175" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E175" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>emergency|hospital|nzte-report</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>1335</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>254</v>
@@ -13362,13 +14105,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>776</v>
       </c>
+      <c r="B176" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>inpatient|hospital|nzte-report</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>1336</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>254</v>
@@ -13395,13 +14150,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="177" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>778</v>
       </c>
+      <c r="B177" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>outpatient|hospital|nzte-report</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>1337</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>254</v>
@@ -13428,13 +14195,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="178" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>780</v>
       </c>
+      <c r="B178" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>theatre|hospital|nzte-report</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>1301</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>254</v>
@@ -13461,13 +14240,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>782</v>
       </c>
+      <c r="B179" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E179" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>waiting-time|hospital|nzte-report</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>1338</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>254</v>
@@ -13494,13 +14285,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="180" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="B180" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E180" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>254</v>
@@ -13527,13 +14330,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="181" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>784</v>
       </c>
+      <c r="B181" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E181" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>254</v>
@@ -13560,13 +14375,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="182" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>785</v>
       </c>
+      <c r="B182" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>254</v>
@@ -13593,13 +14420,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>786</v>
       </c>
+      <c r="B183" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E183" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>254</v>
@@ -13626,13 +14465,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" ht="75" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>787</v>
       </c>
+      <c r="B184" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E184" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>rehabilitation|hospital|nzte-report</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>1339</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>254</v>
@@ -13659,13 +14510,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>789</v>
       </c>
+      <c r="B185" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E185" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>mental-health|hospital|nzte-report</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>1340</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>254</v>
@@ -13692,13 +14555,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="186" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>791</v>
       </c>
+      <c r="B186" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E186" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>image|hospital|nzte-report</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>1347</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>254</v>
@@ -13725,13 +14600,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="187" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>792</v>
       </c>
+      <c r="B187" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E187" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>254</v>
@@ -13758,13 +14645,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="188" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>794</v>
       </c>
+      <c r="B188" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E188" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>pediatrics|hospital|nzte-report</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>1346</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>254</v>
@@ -13791,13 +14690,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="189" spans="1:22" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:22" ht="60" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>796</v>
       </c>
+      <c r="B189" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E189" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>254</v>
@@ -13824,13 +14735,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="190" spans="1:22" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>797</v>
       </c>
+      <c r="B190" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>elderly|hospital|nzte-report</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>1345</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>254</v>
@@ -13857,13 +14780,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>799</v>
       </c>
+      <c r="B191" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E191" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>mental-health|hospital|nzte-report</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>1340</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>254</v>
@@ -13890,13 +14825,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:22" ht="30" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>800</v>
       </c>
+      <c r="B192" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E192" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>254</v>
@@ -13923,13 +14870,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="193" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>801</v>
       </c>
+      <c r="B193" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E193" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>mental-health|hospital|nzte-report</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>1340</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>254</v>
@@ -13956,13 +14915,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="194" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>802</v>
       </c>
+      <c r="B194" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E194" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>|nzte-report</v>
+        <v>hospital|referral|nzte-report</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>1341</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>254</v>
@@ -13989,13 +14960,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="195" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>804</v>
       </c>
+      <c r="B195" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E195" s="1" t="str">
         <f t="shared" ref="E195:E258" si="3">CONCATENATE(F195, "|", "nzte-report")</f>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>254</v>
@@ -14022,13 +15005,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="196" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>805</v>
       </c>
+      <c r="B196" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E196" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>254</v>
@@ -14055,13 +15050,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="197" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>806</v>
       </c>
+      <c r="B197" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E197" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>medication|hospital|nzte-report</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>1343</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>254</v>
@@ -14088,13 +15095,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="198" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>807</v>
       </c>
+      <c r="B198" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E198" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>254</v>
@@ -14121,13 +15140,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="199" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>809</v>
       </c>
+      <c r="B199" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E199" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>ambulance|hospital|nzte-report</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>1344</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>254</v>
@@ -14154,13 +15185,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="200" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>812</v>
       </c>
+      <c r="B200" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>1228</v>
+      </c>
       <c r="E200" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>hospital|nzte-report</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>1299</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>254</v>
@@ -15375,13 +16418,25 @@
         <v>825</v>
       </c>
     </row>
-    <row r="221" spans="1:23" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:23" ht="120" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>872</v>
       </c>
+      <c r="B221" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>1351</v>
+      </c>
       <c r="E221" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>laboratory|nzte-report</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>1237</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>690</v>
@@ -15432,13 +16487,25 @@
         <v>885</v>
       </c>
     </row>
-    <row r="222" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>886</v>
       </c>
+      <c r="B222" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>1351</v>
+      </c>
       <c r="E222" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>laboratory|image|nzte-report</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>1390</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>690</v>
@@ -15453,13 +16520,25 @@
         <v>725</v>
       </c>
     </row>
-    <row r="223" spans="1:23" ht="165" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" ht="165" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>887</v>
       </c>
+      <c r="B223" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>1375</v>
+      </c>
       <c r="E223" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>primary-care|gp|nzte-report</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>1235</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>380</v>
@@ -15510,13 +16589,25 @@
         <v>898</v>
       </c>
     </row>
-    <row r="224" spans="1:23" ht="75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" ht="75" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>899</v>
       </c>
+      <c r="B224" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>1375</v>
+      </c>
       <c r="E224" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>primary-care|claim|nzte-report</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>1392</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>380</v>
@@ -15549,13 +16640,25 @@
         <v>905</v>
       </c>
     </row>
-    <row r="225" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>906</v>
       </c>
+      <c r="B225" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>1375</v>
+      </c>
       <c r="E225" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>nurse|home-care|nzte-report</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>1394</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>380</v>
@@ -15582,13 +16685,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="226" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>909</v>
       </c>
+      <c r="B226" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>1375</v>
+      </c>
       <c r="E226" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>nurse|home-care|nzte-report</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>1394</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>380</v>
@@ -15615,13 +16730,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="227" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>910</v>
       </c>
+      <c r="B227" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>1375</v>
+      </c>
       <c r="E227" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>nurse|home-care|nzte-report</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>1394</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>380</v>
@@ -15648,13 +16775,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="228" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>911</v>
       </c>
+      <c r="B228" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>1375</v>
+      </c>
       <c r="E228" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>nurse|home-care|nzte-report</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>1394</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>380</v>
@@ -15681,13 +16820,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="229" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>912</v>
       </c>
+      <c r="B229" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>1375</v>
+      </c>
       <c r="E229" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>nurse|home-care|nzte-report</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>1394</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>380</v>
@@ -15714,13 +16865,25 @@
         <v>775</v>
       </c>
     </row>
-    <row r="230" spans="1:23" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:23" ht="120" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>914</v>
       </c>
+      <c r="B230" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E230" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>diabetes|nzte-report</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>1189</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>394</v>
@@ -15840,13 +17003,25 @@
         <v>939</v>
       </c>
     </row>
-    <row r="232" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>940</v>
       </c>
+      <c r="B232" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="E232" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>global-health|nzte-report</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>1183</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>444</v>
@@ -15885,13 +17060,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="233" spans="1:23" ht="60" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:23" ht="60" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>944</v>
       </c>
+      <c r="B233" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>1256</v>
+      </c>
       <c r="E233" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>pediatrics|nzte-report</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>1184</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>444</v>
@@ -15963,13 +17150,25 @@
         <v>947</v>
       </c>
     </row>
-    <row r="235" spans="1:23" ht="150" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:23" ht="150" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>948</v>
       </c>
+      <c r="B235" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E235" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>diabetes|nzte-report</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>1189</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>394</v>
@@ -16020,13 +17219,25 @@
         <v>960</v>
       </c>
     </row>
-    <row r="236" spans="1:23" ht="120" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:23" ht="120" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>961</v>
       </c>
+      <c r="B236" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E236" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>diabetes|nzte-report</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>1189</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>394</v>
@@ -16074,13 +17285,25 @@
         <v>968</v>
       </c>
     </row>
-    <row r="237" spans="1:23" ht="255" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:23" ht="255" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>969</v>
       </c>
+      <c r="B237" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E237" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>cardiology|nzte-report</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>394</v>
@@ -16131,13 +17354,25 @@
         <v>980</v>
       </c>
     </row>
-    <row r="238" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>981</v>
       </c>
+      <c r="B238" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E238" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>pediatrics|nzte-report</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>1184</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>394</v>
@@ -16191,13 +17426,25 @@
         <v>995</v>
       </c>
     </row>
-    <row r="239" spans="1:23" ht="30" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:23" ht="30" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>996</v>
       </c>
+      <c r="B239" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E239" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>cardiology|nzte-report</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>394</v>
@@ -16224,13 +17471,25 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="240" spans="1:23" ht="45" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:23" ht="45" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>1001</v>
       </c>
+      <c r="B240" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E240" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>cardiology|nzte-report</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>394</v>
@@ -16257,13 +17516,25 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="241" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>1006</v>
       </c>
+      <c r="B241" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E241" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>blood-donation|nzte-report</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>394</v>
@@ -16287,13 +17558,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="242" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>1009</v>
       </c>
+      <c r="B242" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E242" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>radiology|nzte-report</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>1201</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>394</v>
@@ -16317,13 +17600,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="243" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>1013</v>
       </c>
+      <c r="B243" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E243" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>cardiology|nzte-report</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>394</v>
@@ -16347,13 +17642,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="244" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>1017</v>
       </c>
+      <c r="B244" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E244" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|addiction|nzte-report</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>1399</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>394</v>
@@ -16377,13 +17684,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="245" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>1021</v>
       </c>
+      <c r="B245" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E245" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>cholesterol|nzte-report</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>1400</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>394</v>
@@ -16407,13 +17726,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="246" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>1021</v>
       </c>
+      <c r="B246" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E246" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>research|nzte-report</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>1409</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>394</v>
@@ -16437,13 +17768,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="247" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>1025</v>
       </c>
+      <c r="B247" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E247" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|addiction|nzte-report</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>1399</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>394</v>
@@ -16467,13 +17810,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="248" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>1028</v>
       </c>
+      <c r="B248" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E248" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|addiction|nzte-report</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>1399</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>394</v>
@@ -16497,13 +17852,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="249" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>1032</v>
       </c>
+      <c r="B249" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E249" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>nutrition|nzte-report</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>1267</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>394</v>
@@ -16527,13 +17894,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="250" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>1036</v>
       </c>
+      <c r="B250" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E250" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>stroke|nzte-report</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>1401</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>394</v>
@@ -16557,13 +17936,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="251" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>1040</v>
       </c>
+      <c r="B251" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E251" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|addiction|nzte-report</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>1399</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>394</v>
@@ -16587,13 +17978,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="252" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>1044</v>
       </c>
+      <c r="B252" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E252" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>social|research|qol|lifstyle|nzte-report</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>1411</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>394</v>
@@ -16617,13 +18020,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="253" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>1048</v>
       </c>
+      <c r="B253" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E253" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|cardiology|nzte-report</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>1402</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>394</v>
@@ -16647,13 +18062,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="254" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>1052</v>
       </c>
+      <c r="B254" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E254" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>research|nzte-report</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>1409</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>394</v>
@@ -16677,13 +18104,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="255" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>1054</v>
       </c>
+      <c r="B255" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E255" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>mental-health|hospital|nzte-report</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>1340</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>394</v>
@@ -16707,13 +18146,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="256" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>1058</v>
       </c>
+      <c r="B256" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E256" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>nutrition|nzte-report</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>1267</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>394</v>
@@ -16737,13 +18188,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="257" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>1062</v>
       </c>
+      <c r="B257" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E257" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|addiction|alcohol|nzte-report</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>1403</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>394</v>
@@ -16767,13 +18230,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="258" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>1066</v>
       </c>
+      <c r="B258" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E258" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>|nzte-report</v>
+        <v>barthel-index|research|adl|nzte-report</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>1412</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>394</v>
@@ -16797,13 +18272,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="259" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>1070</v>
       </c>
+      <c r="B259" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E259" s="1" t="str">
         <f t="shared" ref="E259:E287" si="4">CONCATENATE(F259, "|", "nzte-report")</f>
-        <v>|nzte-report</v>
+        <v>qol|research|cardiology|nzte-report</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>1413</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>394</v>
@@ -16827,13 +18314,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="260" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>1074</v>
       </c>
+      <c r="B260" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E260" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>tobacco|smoking|addiction|nzte-report</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>1399</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>394</v>
@@ -16857,13 +18356,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="261" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>1078</v>
       </c>
+      <c r="B261" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E261" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>freemasons|research|nzte-report</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>1414</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>394</v>
@@ -16887,13 +18398,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="262" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>1080</v>
       </c>
+      <c r="B262" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E262" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>car-crash|nzte-report</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>1404</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>394</v>
@@ -16917,13 +18440,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="263" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>1082</v>
       </c>
+      <c r="B263" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E263" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>stroke|nzte-report</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>1401</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>394</v>
@@ -16947,13 +18482,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="264" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>1085</v>
       </c>
+      <c r="B264" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E264" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>sleep|nzte-report</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>1405</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>394</v>
@@ -16977,13 +18524,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="265" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>1089</v>
       </c>
+      <c r="B265" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E265" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>mental-health|nzte-report</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>1204</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>394</v>
@@ -17007,13 +18566,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="266" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>1093</v>
       </c>
+      <c r="B266" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E266" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>nutrition|nzte-report</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>1267</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>394</v>
@@ -17037,13 +18608,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="267" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>1097</v>
       </c>
+      <c r="B267" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E267" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>steroid|research|nzte-report</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>1415</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>394</v>
@@ -17067,13 +18650,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="268" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>1099</v>
       </c>
+      <c r="B268" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E268" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>qol|research|nzte-report</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>1416</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>394</v>
@@ -17097,13 +18692,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="269" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>1103</v>
       </c>
+      <c r="B269" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E269" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>radiology|research|nzte-report</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>1417</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>394</v>
@@ -17127,13 +18734,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="270" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>1105</v>
       </c>
+      <c r="B270" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E270" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>blood-donation|nzte-report</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>1398</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>394</v>
@@ -17157,13 +18776,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="271" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>1107</v>
       </c>
+      <c r="B271" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E271" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>ulcer|medication|nzte-report</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>1406</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>394</v>
@@ -17187,13 +18818,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="272" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>1111</v>
       </c>
+      <c r="B272" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E272" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>nephrology|nzte-report</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>1315</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>394</v>
@@ -17217,13 +18860,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="273" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>1115</v>
       </c>
+      <c r="B273" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E273" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>sport|global-health|nzte-report</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>1407</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>394</v>
@@ -17247,13 +18902,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="274" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>1119</v>
       </c>
+      <c r="B274" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E274" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>nutrition|nzte-report</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>1267</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>394</v>
@@ -17277,13 +18944,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="275" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>1122</v>
       </c>
+      <c r="B275" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E275" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>adherence|research|nzte-report</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>1418</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>394</v>
@@ -17307,13 +18986,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="276" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>1126</v>
       </c>
+      <c r="B276" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E276" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>medication|nzte-report</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>1342</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>394</v>
@@ -17337,13 +19028,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="277" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>1130</v>
       </c>
+      <c r="B277" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E277" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>social|research|nzte-report</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>1410</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>394</v>
@@ -17367,13 +19070,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="278" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>1134</v>
       </c>
+      <c r="B278" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E278" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>asthma|nzte-report</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>1408</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>394</v>
@@ -17397,13 +19112,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="279" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>1138</v>
       </c>
+      <c r="B279" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E279" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>nutrition|research|nzte-report</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>1419</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>394</v>
@@ -17427,13 +19154,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="280" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>1142</v>
       </c>
+      <c r="B280" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E280" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>stroke|nzte-report</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>1401</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>394</v>
@@ -17457,13 +19196,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="281" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>1146</v>
       </c>
+      <c r="B281" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E281" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>research|nzte-report</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>1409</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>394</v>
@@ -17487,13 +19238,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="282" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>1148</v>
       </c>
+      <c r="B282" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E282" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>addiction|research|nzte-report</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>1420</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>394</v>
@@ -17517,13 +19280,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="283" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>1152</v>
       </c>
+      <c r="B283" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E283" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>stroke|nzte-report</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>1401</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>394</v>
@@ -17547,13 +19322,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="284" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>1154</v>
       </c>
+      <c r="B284" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E284" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>adherence|research|nzte-report</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>1418</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>394</v>
@@ -17577,13 +19364,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="285" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>1158</v>
       </c>
+      <c r="B285" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E285" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>sport|lifestyle|research|nzte-report</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>1421</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>394</v>
@@ -17607,13 +19406,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="286" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>1162</v>
       </c>
+      <c r="B286" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E286" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>qol|research|nzte-report</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>1416</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>394</v>
@@ -17637,13 +19448,25 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="287" spans="1:23" ht="105" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:23" ht="105" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>1166</v>
       </c>
+      <c r="B287" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>1303</v>
+      </c>
       <c r="E287" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>|nzte-report</v>
+        <v>nutrition|nzte-report</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>1267</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>394</v>
@@ -17665,93 +19488,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W287">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="acc|nzte-report"/>
-        <filter val="addiction|gambling|nzte-report"/>
-        <filter val="alcohol|addiction|drug-use|nzte-report"/>
-        <filter val="assistance|nzte-report"/>
-        <filter val="awareness|nzte-report"/>
-        <filter val="cancer|nzte-report"/>
-        <filter val="cancer|oncology|nzte-report"/>
-        <filter val="cancer|oncology|waiting-time|nzte-report"/>
-        <filter val="cardiology|nzte-report"/>
-        <filter val="claims|mental-health|addiction|nzte-report"/>
-        <filter val="compliance|nzte-report"/>
-        <filter val="costing|nzte-report"/>
-        <filter val="dhb|nzte-report"/>
-        <filter val="diabetes|cardiology|nzte-report"/>
-        <filter val="diabetes|nzte-report"/>
-        <filter val="diet|nzte-report"/>
-        <filter val="discharge|nzte-report"/>
-        <filter val="drugs|awareness|nzte-report"/>
-        <filter val="drugs|nzte-report"/>
-        <filter val="elderly|nzte-report"/>
-        <filter val="elderly|residential-care|nzte-report"/>
-        <filter val="emergency|nzte-report"/>
-        <filter val="examination|nzte-report"/>
-        <filter val="gastroenterology|nzte-report"/>
-        <filter val="global-health|nzte-report"/>
-        <filter val="gp|primary-care|nzte-report"/>
-        <filter val="gynaecology|nzte-report"/>
-        <filter val="hiv|nzte-report"/>
-        <filter val="hospital|finance|nzte-report"/>
-        <filter val="hospital|nzte-report"/>
-        <filter val="hospital|theatre|nzte-report"/>
-        <filter val="hospital|trial|nzte-report"/>
-        <filter val="hospital|workforce|nzte-report"/>
-        <filter val="image|nzte-report"/>
-        <filter val="immunisation|nzte-report"/>
-        <filter val="instrument|nzte-report"/>
-        <filter val="laboratory|nzte-report"/>
-        <filter val="maori|nzte-report"/>
-        <filter val="maternity|nzte-report"/>
-        <filter val="mental-health|addiction|nzte-report"/>
-        <filter val="mental-health|nzte-report"/>
-        <filter val="mortality|nzte-report"/>
-        <filter val="nephrology|nzte-report"/>
-        <filter val="nurse|nzte-report"/>
-        <filter val="nutrition|nzte-report"/>
-        <filter val="oral|nzte-report"/>
-        <filter val="orthopaedics|nzte-report"/>
-        <filter val="outpatient|nzte-report"/>
-        <filter val="parenting|nurse|nzte-report"/>
-        <filter val="pediatrics|nutrition|nzte-report"/>
-        <filter val="pediatrics|nzte-report"/>
-        <filter val="pediatrics|school|nzte-report"/>
-        <filter val="pharmacy|nzte-report"/>
-        <filter val="primary-care|gp|nzte-report"/>
-        <filter val="primary-care|nzte-report"/>
-        <filter val="prisoners|nzte-report"/>
-        <filter val="radiology|nzte-report"/>
-        <filter val="radiology|waiting-time|nzte-report"/>
-        <filter val="school|nutrition|nzte-report"/>
-        <filter val="school|nzte-report"/>
-        <filter val="screening|nzte-report"/>
-        <filter val="secondary-care|nzte-report"/>
-        <filter val="smoking|primary-care|tobacco|nzte-report"/>
-        <filter val="smoking|tobacco|nzte-report"/>
-        <filter val="specialty|treatment|surgery|nzte-report"/>
-        <filter val="sport|nzte-report"/>
-        <filter val="surgery|nzte-report"/>
-        <filter val="theatre|hospital|nzte-report"/>
-        <filter val="tobacco|smoking|nzte-report"/>
-        <filter val="waiting-time|nzte-report"/>
-        <filter val="workforce|nzte-report"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="ADHB"/>
-        <filter val="CMDHB"/>
-        <filter val="MoH"/>
-        <filter val="Southern DHB"/>
-        <filter val="Waikato DHB"/>
-        <filter val="WDHB"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/parse_nzte_stockable/_Appendix.C_Full.detail.stocktake.xlsx
+++ b/parse_nzte_stockable/_Appendix.C_Full.detail.stocktake.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentint/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quentint/dev/pdh_data_review/parse_nzte_stockable/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-2940" windowWidth="38400" windowHeight="22280"/>
+    <workbookView xWindow="-38400" yWindow="-2940" windowWidth="38400" windowHeight="22200"/>
   </bookViews>
   <sheets>
     <sheet name="Intv.form_sort.20130628" sheetId="4" r:id="rId1"/>
@@ -3723,9 +3723,6 @@
     <t>pediatrics</t>
   </si>
   <si>
-    <t>elderly|residential-care</t>
-  </si>
-  <si>
     <t>claims|mental-health|addiction</t>
   </si>
   <si>
@@ -3861,9 +3858,6 @@
     <t>new-zealand integrated-care</t>
   </si>
   <si>
-    <t>elderly</t>
-  </si>
-  <si>
     <t>http://www.health.govt.nz/our-work/health-identity/national-health-index</t>
   </si>
   <si>
@@ -4203,9 +4197,6 @@
     <t>ambulance|hospital</t>
   </si>
   <si>
-    <t>elderly|hospital</t>
-  </si>
-  <si>
     <t>pediatrics|hospital</t>
   </si>
   <si>
@@ -4432,6 +4423,15 @@
   </si>
   <si>
     <t>sport|lifestyle|research</t>
+  </si>
+  <si>
+    <t>elder|residential-care</t>
+  </si>
+  <si>
+    <t>elder</t>
+  </si>
+  <si>
+    <t>elder|hospital</t>
   </si>
 </sst>
 </file>
@@ -4802,10 +4802,10 @@
   <dimension ref="A1:W287"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" zoomScalePageLayoutView="124" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B215" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F286" sqref="F286"/>
+      <selection pane="bottomRight" activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4841,7 +4841,7 @@
         <v>1173</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -5039,7 +5039,7 @@
         <v>gp|primary-care|nzte-report</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -5096,7 +5096,7 @@
         <v>hospital|nzte-report</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>19</v>
@@ -5315,10 +5315,10 @@
       </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>elderly|residential-care|nzte-report</v>
+        <v>elder|residential-care|nzte-report</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1185</v>
+        <v>1419</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>19</v>
@@ -5375,7 +5375,7 @@
         <v>claims|mental-health|addiction|nzte-report</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>19</v>
@@ -5432,7 +5432,7 @@
         <v>hospital|nzte-report</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>19</v>
@@ -5489,7 +5489,7 @@
         <v>assistance|nzte-report</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>19</v>
@@ -5543,7 +5543,7 @@
         <v>school|nzte-report</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>19</v>
@@ -5672,7 +5672,7 @@
         <v>diabetes|nzte-report</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>19</v>
@@ -5729,7 +5729,7 @@
         <v>screening|nzte-report</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>19</v>
@@ -5776,7 +5776,7 @@
         <v>1179</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1175</v>
@@ -5786,7 +5786,7 @@
         <v>maori|nzte-report</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>19</v>
@@ -5833,7 +5833,7 @@
         <v>1179</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1175</v>
@@ -5843,7 +5843,7 @@
         <v>oral|nzte-report</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>19</v>
@@ -5890,7 +5890,7 @@
         <v>1179</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1175</v>
@@ -5900,7 +5900,7 @@
         <v>oral|nzte-report</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>19</v>
@@ -5957,7 +5957,7 @@
         <v>pediatrics|school|nzte-report</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>19</v>
@@ -6014,7 +6014,7 @@
         <v>examination|nzte-report</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>19</v>
@@ -6061,7 +6061,7 @@
         <v>1179</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1175</v>
@@ -6071,7 +6071,7 @@
         <v>oral|nzte-report</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>19</v>
@@ -6118,7 +6118,7 @@
         <v>1179</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1175</v>
@@ -6128,7 +6128,7 @@
         <v>compliance|nzte-report</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>19</v>
@@ -6175,7 +6175,7 @@
         <v>1179</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1175</v>
@@ -6289,7 +6289,7 @@
         <v>1179</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1175</v>
@@ -6356,7 +6356,7 @@
         <v>radiology|nzte-report</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>19</v>
@@ -6403,7 +6403,7 @@
         <v>1179</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1175</v>
@@ -6460,7 +6460,7 @@
         <v>1179</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1175</v>
@@ -6470,7 +6470,7 @@
         <v>smoking|tobacco|nzte-report</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>19</v>
@@ -6527,7 +6527,7 @@
         <v>gp|primary-care|nzte-report</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>19</v>
@@ -6584,7 +6584,7 @@
         <v>mental-health|nzte-report</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>19</v>
@@ -6641,7 +6641,7 @@
         <v>cardiology|nzte-report</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>19</v>
@@ -6698,7 +6698,7 @@
         <v>cardiology|nzte-report</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>19</v>
@@ -6916,7 +6916,7 @@
         <v>1179</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>1175</v>
@@ -6926,7 +6926,7 @@
         <v>parenting|nurse|nzte-report</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>19</v>
@@ -6983,7 +6983,7 @@
         <v>dhb|nzte-report</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>19</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="39" spans="1:21" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1179</v>
@@ -7097,7 +7097,7 @@
         <v>school|nutrition|nzte-report</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>19</v>
@@ -7144,7 +7144,7 @@
         <v>1179</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1175</v>
@@ -7154,7 +7154,7 @@
         <v>awareness|nzte-report</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>19</v>
@@ -7258,7 +7258,7 @@
         <v>1179</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1175</v>
@@ -7268,7 +7268,7 @@
         <v>mental-health|nzte-report</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>19</v>
@@ -7325,7 +7325,7 @@
         <v>awareness|nzte-report</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>19</v>
@@ -7382,7 +7382,7 @@
         <v>smoking|primary-care|tobacco|nzte-report</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>19</v>
@@ -7439,7 +7439,7 @@
         <v>secondary-care|nzte-report</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>19</v>
@@ -7486,7 +7486,7 @@
         <v>1179</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1175</v>
@@ -7496,7 +7496,7 @@
         <v>radiology|waiting-time|nzte-report</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>19</v>
@@ -7543,7 +7543,7 @@
         <v>1179</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1175</v>
@@ -7553,7 +7553,7 @@
         <v>cancer|oncology|waiting-time|nzte-report</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>19</v>
@@ -7600,7 +7600,7 @@
         <v>1179</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>1175</v>
@@ -7610,7 +7610,7 @@
         <v>smoking|tobacco|nzte-report</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>19</v>
@@ -7657,7 +7657,7 @@
         <v>1179</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>1175</v>
@@ -7667,7 +7667,7 @@
         <v>smoking|tobacco|nzte-report</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>19</v>
@@ -7714,7 +7714,7 @@
         <v>1179</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>1175</v>
@@ -7724,7 +7724,7 @@
         <v>emergency|nzte-report</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>19</v>
@@ -7771,7 +7771,7 @@
         <v>1179</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>1175</v>
@@ -7781,7 +7781,7 @@
         <v>mental-health|nzte-report</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>19</v>
@@ -7838,7 +7838,7 @@
         <v>oral|nzte-report</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>19</v>
@@ -7895,7 +7895,7 @@
         <v>oral|nzte-report</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>19</v>
@@ -7952,7 +7952,7 @@
         <v>oral|nzte-report</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>19</v>
@@ -8009,7 +8009,7 @@
         <v>oral|nzte-report</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>19</v>
@@ -8123,7 +8123,7 @@
         <v>hospital|theatre|nzte-report</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>19</v>
@@ -8180,7 +8180,7 @@
         <v>waiting-time|nzte-report</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>19</v>
@@ -8227,7 +8227,7 @@
         <v>1179</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1175</v>
@@ -8237,7 +8237,7 @@
         <v>costing|nzte-report</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>19</v>
@@ -8323,7 +8323,7 @@
         <v>236</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>1170</v>
@@ -8336,7 +8336,7 @@
         <v>medication|pharmacy|nzte-report</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>19</v>
@@ -8392,7 +8392,7 @@
         <v>247</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>1170</v>
@@ -8405,7 +8405,7 @@
         <v>medication|hospital|nzte-report</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>19</v>
@@ -8467,14 +8467,14 @@
         <v>1181</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>school|nzte-report</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>254</v>
@@ -8521,17 +8521,17 @@
         <v>1179</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>1229</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>1230</v>
       </c>
       <c r="E65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>elderly|nzte-report</v>
+        <v>elder|nzte-report</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>1231</v>
+        <v>1420</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>258</v>
@@ -8587,20 +8587,20 @@
         <v>271</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>genetics|nzte-report</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>258</v>
@@ -8662,10 +8662,10 @@
         <v>1179</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E67" s="1" t="str">
         <f t="shared" ref="E67:E130" si="1">CONCATENATE(F67, "|", "nzte-report")</f>
@@ -8734,17 +8734,17 @@
         <v>1179</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>primary-care|gp|nzte-report</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>287</v>
@@ -8800,17 +8800,17 @@
         <v>1179</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>laboratory|nzte-report</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>287</v>
@@ -8842,17 +8842,17 @@
         <v>1179</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>drugs|awareness|nzte-report</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>287</v>
@@ -8908,17 +8908,17 @@
         <v>1179</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>mortality|nzte-report</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>287</v>
@@ -8950,17 +8950,17 @@
         <v>1179</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>specialty|treatment|surgery|nzte-report</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>287</v>
@@ -8992,17 +8992,17 @@
         <v>1179</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>specialty|treatment|surgery|nzte-report</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>287</v>
@@ -9061,17 +9061,17 @@
         <v>1179</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>immunisation|nzte-report</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>287</v>
@@ -9103,17 +9103,17 @@
         <v>1179</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>maternity|nzte-report</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>287</v>
@@ -9169,17 +9169,17 @@
         <v>1179</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>287</v>
@@ -9211,17 +9211,17 @@
         <v>1179</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>outpatient|nzte-report</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>287</v>
@@ -9277,17 +9277,17 @@
         <v>1179</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>cancer|oncology|nzte-report</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>287</v>
@@ -9319,17 +9319,17 @@
         <v>1179</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>primary-care|nzte-report</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>287</v>
@@ -9361,17 +9361,17 @@
         <v>1179</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>mental-health|nzte-report</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>287</v>
@@ -9418,10 +9418,10 @@
         <v>381</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E81" s="1" t="str">
         <f t="shared" si="1"/>
@@ -9484,20 +9484,20 @@
         <v>393</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>sti|nzte-report</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>394</v>
@@ -9553,20 +9553,20 @@
         <v>408</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>laboratory|nzte-report</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>394</v>
@@ -9622,20 +9622,20 @@
         <v>416</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>disease|nzte-report</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>394</v>
@@ -9691,20 +9691,20 @@
         <v>427</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>hiv|nzte-report</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>394</v>
@@ -9754,14 +9754,14 @@
         <v>1171</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>bioengineering|nzte-report</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>394</v>
@@ -9820,20 +9820,20 @@
         <v>443</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>cardiology|nzte-report</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>444</v>
@@ -9892,17 +9892,17 @@
         <v>457</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>nephrology|nzte-report</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>444</v>
@@ -9925,17 +9925,17 @@
         <v>459</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ophthalmology|nzte-report</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>444</v>
@@ -9958,17 +9958,17 @@
         <v>1179</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>diabetes|nzte-report</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>444</v>
@@ -10015,17 +10015,17 @@
         <v>1179</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>cancer|oncology|nzte-report</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>444</v>
@@ -10072,17 +10072,17 @@
         <v>1179</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>cancer|oncology|nzte-report</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>444</v>
@@ -10129,17 +10129,17 @@
         <v>1179</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>addiction|gambling|nzte-report</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>444</v>
@@ -10186,10 +10186,10 @@
         <v>1179</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E94" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10243,10 +10243,10 @@
         <v>1179</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10300,17 +10300,17 @@
         <v>477</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>nephrology|nzte-report</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>444</v>
@@ -10372,17 +10372,17 @@
         <v>432</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>cardiology|nzte-report</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>444</v>
@@ -10438,20 +10438,20 @@
         <v>503</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>tobacco|smoking|nzte-report</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>504</v>
@@ -10507,20 +10507,20 @@
         <v>514</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>tobacco|smoking|nzte-report</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>504</v>
@@ -10564,20 +10564,20 @@
         <v>517</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E100" s="1" t="str">
         <f t="shared" si="1"/>
         <v>alcohol|addiction|nzte-report</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>504</v>
@@ -10624,17 +10624,17 @@
         <v>521</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E101" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lifestyle|nutrition|smoking|tobacco|addiction|nzte-report</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>504</v>
@@ -10681,20 +10681,20 @@
         <v>526</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>tobacco|smoking|nzte-report</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>504</v>
@@ -10732,20 +10732,20 @@
         <v>530</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E103" s="1" t="str">
         <f t="shared" si="1"/>
         <v>dermatology|sun|nzte-report</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>504</v>
@@ -10789,20 +10789,20 @@
         <v>534</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E104" s="1" t="str">
         <f t="shared" si="1"/>
         <v>tobacco|smoking|nzte-report</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>504</v>
@@ -10837,10 +10837,10 @@
         <v>1179</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E105" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10894,10 +10894,10 @@
         <v>1179</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E106" s="1" t="str">
         <f t="shared" si="1"/>
@@ -10951,10 +10951,10 @@
         <v>1179</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E107" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11008,10 +11008,10 @@
         <v>1179</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E108" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11065,10 +11065,10 @@
         <v>1179</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E109" s="1" t="str">
         <f t="shared" si="1"/>
@@ -11122,17 +11122,17 @@
         <v>1179</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>alcohol|addiction|drug-use|nzte-report</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>504</v>
@@ -11179,17 +11179,17 @@
         <v>1179</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>pediatrics|nutrition|nzte-report</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>504</v>
@@ -11236,17 +11236,17 @@
         <v>1179</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E112" s="1" t="str">
         <f t="shared" si="1"/>
         <v>nutrition|nzte-report</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>504</v>
@@ -11293,17 +11293,17 @@
         <v>1179</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E113" s="1" t="str">
         <f t="shared" si="1"/>
         <v>nutrition|nzte-report</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>504</v>
@@ -11350,17 +11350,17 @@
         <v>1179</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E114" s="1" t="str">
         <f t="shared" si="1"/>
         <v>oral|nzte-report</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>504</v>
@@ -11407,17 +11407,17 @@
         <v>1179</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E115" s="1" t="str">
         <f t="shared" si="1"/>
         <v>oral|nzte-report</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>504</v>
@@ -11464,17 +11464,17 @@
         <v>1179</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>oral|nzte-report</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>504</v>
@@ -11521,17 +11521,17 @@
         <v>1179</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>mental-health|nzte-report</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>504</v>
@@ -11578,17 +11578,17 @@
         <v>1179</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E118" s="1" t="str">
         <f t="shared" si="1"/>
         <v>tobacco|smoking|nzte-report</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>504</v>
@@ -11638,14 +11638,14 @@
         <v>1181</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E119" s="1" t="str">
         <f t="shared" si="1"/>
         <v>tobacco|smoking|nzte-report</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>504</v>
@@ -11692,17 +11692,17 @@
         <v>1179</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E120" s="1" t="str">
         <f t="shared" si="1"/>
         <v>immunisation|nzte-report</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>504</v>
@@ -11749,17 +11749,17 @@
         <v>1179</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E121" s="1" t="str">
         <f t="shared" si="1"/>
         <v>prisoners|nzte-report</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>504</v>
@@ -11806,17 +11806,17 @@
         <v>1179</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E122" s="1" t="str">
         <f t="shared" si="1"/>
         <v>workforce|nzte-report</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>504</v>
@@ -11869,14 +11869,14 @@
         <v>1181</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>sport|nzte-report</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>504</v>
@@ -11923,14 +11923,14 @@
         <v>1181</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E124" s="1" t="str">
         <f t="shared" si="1"/>
         <v>sport|nzte-report</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>504</v>
@@ -11980,14 +11980,14 @@
         <v>1181</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>diet|nzte-report</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>504</v>
@@ -12037,14 +12037,14 @@
         <v>1181</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E126" s="1" t="str">
         <f t="shared" si="1"/>
         <v>alcohol|addiction|drug-use|nzte-report</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>504</v>
@@ -12091,17 +12091,17 @@
         <v>1179</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E127" s="1" t="str">
         <f t="shared" si="1"/>
         <v>workforce|nzte-report</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>504</v>
@@ -12133,17 +12133,17 @@
         <v>1179</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E128" s="1" t="str">
         <f t="shared" si="1"/>
         <v>sport|nzte-report</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>504</v>
@@ -12187,20 +12187,20 @@
         <v>625</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E129" s="1" t="str">
         <f t="shared" si="1"/>
         <v>primary-care|nzte-report</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>504</v>
@@ -12223,10 +12223,10 @@
         <v>629</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>1175</v>
@@ -12236,7 +12236,7 @@
         <v>cancer|oncology|waiting-time|nzte-report</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>19</v>
@@ -12262,10 +12262,10 @@
         <v>635</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>1175</v>
@@ -12275,7 +12275,7 @@
         <v>cancer|oncology|pulmonology|nzte-report</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>19</v>
@@ -12319,10 +12319,10 @@
         <v>644</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>1175</v>
@@ -12332,7 +12332,7 @@
         <v>cancer|oncology|gastroenterology|nzte-report</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>19</v>
@@ -12373,10 +12373,10 @@
         <v>650</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>1175</v>
@@ -12386,7 +12386,7 @@
         <v>cancer|oncology|gastroenterology|nzte-report</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>19</v>
@@ -12427,10 +12427,10 @@
         <v>656</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>1175</v>
@@ -12440,7 +12440,7 @@
         <v>cancer|oncology|waiting-time|nzte-report</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
@@ -12475,10 +12475,10 @@
         <v>662</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>1175</v>
@@ -12488,7 +12488,7 @@
         <v>cancer|oncology|nzte-report</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>19</v>
@@ -12517,10 +12517,10 @@
         <v>666</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>1175</v>
@@ -12530,7 +12530,7 @@
         <v>cancer|oncology|nzte-report</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>19</v>
@@ -12553,10 +12553,10 @@
         <v>669</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>1175</v>
@@ -12566,7 +12566,7 @@
         <v>cancer|oncology|nzte-report</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>19</v>
@@ -12586,10 +12586,10 @@
         <v>671</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>1175</v>
@@ -12599,7 +12599,7 @@
         <v>cancer|oncology|gastroenterology|nzte-report</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>19</v>
@@ -12619,13 +12619,13 @@
         <v>674</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E139" s="1" t="str">
         <f t="shared" si="2"/>
@@ -12694,17 +12694,17 @@
         <v>691</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E140" s="1" t="str">
         <f t="shared" si="2"/>
         <v>laboratory|radiology|pharmacy|nzte-report</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>690</v>
@@ -12763,10 +12763,10 @@
         <v>702</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>1175</v>
@@ -12776,7 +12776,7 @@
         <v>cancer|oncology|nzte-report</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>444</v>
@@ -12811,20 +12811,20 @@
         <v>707</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>1304</v>
-      </c>
       <c r="D142" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E142" s="1" t="str">
         <f t="shared" si="2"/>
         <v>cancer|nzte-report</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>444</v>
@@ -12886,17 +12886,17 @@
         <v>432</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E143" s="1" t="str">
         <f t="shared" si="2"/>
         <v>rheumatology|nzte-report</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>444</v>
@@ -12919,7 +12919,7 @@
         <v>724</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>1175</v>
@@ -12929,7 +12929,7 @@
         <v>gp|primary-care|nzte-report</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>19</v>
@@ -12985,10 +12985,10 @@
         <v>737</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>1302</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>1304</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>1175</v>
@@ -12998,7 +12998,7 @@
         <v>primary-care|nzte-report</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>19</v>
@@ -13018,20 +13018,20 @@
         <v>739</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E146" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>254</v>
@@ -13054,20 +13054,20 @@
         <v>742</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E147" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>254</v>
@@ -13090,20 +13090,20 @@
         <v>744</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E148" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>254</v>
@@ -13126,20 +13126,20 @@
         <v>745</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E149" s="1" t="str">
         <f t="shared" si="2"/>
         <v>theatre|hospital|nzte-report</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>254</v>
@@ -13162,20 +13162,20 @@
         <v>746</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E150" s="1" t="str">
         <f t="shared" si="2"/>
         <v>image|nzte-report</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>254</v>
@@ -13198,20 +13198,20 @@
         <v>747</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E151" s="1" t="str">
         <f t="shared" si="2"/>
         <v>radiology|nzte-report</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>254</v>
@@ -13234,20 +13234,20 @@
         <v>748</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E152" s="1" t="str">
         <f t="shared" si="2"/>
         <v>mental-health|nzte-report</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>254</v>
@@ -13270,20 +13270,20 @@
         <v>749</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E153" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>254</v>
@@ -13306,20 +13306,20 @@
         <v>750</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E154" s="1" t="str">
         <f t="shared" si="2"/>
         <v>diabetes|nzte-report</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>254</v>
@@ -13342,20 +13342,20 @@
         <v>751</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E155" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>254</v>
@@ -13378,20 +13378,20 @@
         <v>752</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E156" s="1" t="str">
         <f t="shared" si="2"/>
         <v>discharge|nzte-report</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>254</v>
@@ -13414,20 +13414,20 @@
         <v>753</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E157" s="1" t="str">
         <f t="shared" si="2"/>
         <v>laboratory|nzte-report</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>254</v>
@@ -13450,20 +13450,20 @@
         <v>754</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E158" s="1" t="str">
         <f t="shared" si="2"/>
         <v>laboratory|nzte-report</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>254</v>
@@ -13486,20 +13486,20 @@
         <v>755</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E159" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>254</v>
@@ -13522,20 +13522,20 @@
         <v>756</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E160" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>254</v>
@@ -13558,20 +13558,20 @@
         <v>757</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E161" s="1" t="str">
         <f t="shared" si="2"/>
         <v>gynaecology|nzte-report</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>254</v>
@@ -13594,20 +13594,20 @@
         <v>758</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E162" s="1" t="str">
         <f t="shared" si="2"/>
         <v>maternity|nzte-report</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>254</v>
@@ -13630,20 +13630,20 @@
         <v>759</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E163" s="1" t="str">
         <f t="shared" si="2"/>
         <v>maternity|nzte-report</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>254</v>
@@ -13666,20 +13666,20 @@
         <v>760</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E164" s="1" t="str">
         <f t="shared" si="2"/>
         <v>cardiology|nzte-report</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>254</v>
@@ -13702,20 +13702,20 @@
         <v>761</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E165" s="1" t="str">
         <f t="shared" si="2"/>
         <v>orthopaedics|nzte-report</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>254</v>
@@ -13738,20 +13738,20 @@
         <v>762</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E166" s="1" t="str">
         <f t="shared" si="2"/>
         <v>gastroenterology|nzte-report</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>254</v>
@@ -13774,20 +13774,20 @@
         <v>763</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E167" s="1" t="str">
         <f t="shared" si="2"/>
         <v>pharmacy|nzte-report</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>254</v>
@@ -13810,20 +13810,20 @@
         <v>764</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E168" s="1" t="str">
         <f t="shared" si="2"/>
         <v>surgery|nzte-report</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>254</v>
@@ -13846,20 +13846,20 @@
         <v>765</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E169" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>254</v>
@@ -13882,20 +13882,20 @@
         <v>766</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E170" s="1" t="str">
         <f t="shared" si="2"/>
         <v>radiology|nzte-report</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>254</v>
@@ -13918,20 +13918,20 @@
         <v>767</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E171" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>254</v>
@@ -13954,20 +13954,20 @@
         <v>768</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E172" s="1" t="str">
         <f t="shared" si="2"/>
         <v>oral|nzte-report</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>254</v>
@@ -13990,20 +13990,20 @@
         <v>769</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E173" s="1" t="str">
         <f t="shared" si="2"/>
         <v>instrument|nzte-report</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>254</v>
@@ -14026,20 +14026,20 @@
         <v>770</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E174" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>254</v>
@@ -14062,20 +14062,20 @@
         <v>771</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E175" s="1" t="str">
         <f t="shared" si="2"/>
         <v>emergency|hospital|nzte-report</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>254</v>
@@ -14110,20 +14110,20 @@
         <v>776</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E176" s="1" t="str">
         <f t="shared" si="2"/>
         <v>inpatient|hospital|nzte-report</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>254</v>
@@ -14155,20 +14155,20 @@
         <v>778</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E177" s="1" t="str">
         <f t="shared" si="2"/>
         <v>outpatient|hospital|nzte-report</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>254</v>
@@ -14200,20 +14200,20 @@
         <v>780</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E178" s="1" t="str">
         <f t="shared" si="2"/>
         <v>theatre|hospital|nzte-report</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>254</v>
@@ -14245,20 +14245,20 @@
         <v>782</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E179" s="1" t="str">
         <f t="shared" si="2"/>
         <v>waiting-time|hospital|nzte-report</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>254</v>
@@ -14290,20 +14290,20 @@
         <v>783</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E180" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>254</v>
@@ -14335,20 +14335,20 @@
         <v>784</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E181" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>254</v>
@@ -14380,20 +14380,20 @@
         <v>785</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E182" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>254</v>
@@ -14425,20 +14425,20 @@
         <v>786</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E183" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>254</v>
@@ -14470,20 +14470,20 @@
         <v>787</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E184" s="1" t="str">
         <f t="shared" si="2"/>
         <v>rehabilitation|hospital|nzte-report</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>254</v>
@@ -14515,20 +14515,20 @@
         <v>789</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E185" s="1" t="str">
         <f t="shared" si="2"/>
         <v>mental-health|hospital|nzte-report</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>254</v>
@@ -14560,20 +14560,20 @@
         <v>791</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E186" s="1" t="str">
         <f t="shared" si="2"/>
         <v>image|hospital|nzte-report</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>254</v>
@@ -14605,20 +14605,20 @@
         <v>792</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E187" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>254</v>
@@ -14650,20 +14650,20 @@
         <v>794</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E188" s="1" t="str">
         <f t="shared" si="2"/>
         <v>pediatrics|hospital|nzte-report</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>254</v>
@@ -14695,20 +14695,20 @@
         <v>796</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E189" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>254</v>
@@ -14740,20 +14740,20 @@
         <v>797</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E190" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>elderly|hospital|nzte-report</v>
+        <v>elder|hospital|nzte-report</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1345</v>
+        <v>1421</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>254</v>
@@ -14785,20 +14785,20 @@
         <v>799</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E191" s="1" t="str">
         <f t="shared" si="2"/>
         <v>mental-health|hospital|nzte-report</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>254</v>
@@ -14830,20 +14830,20 @@
         <v>800</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E192" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>254</v>
@@ -14875,20 +14875,20 @@
         <v>801</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E193" s="1" t="str">
         <f t="shared" si="2"/>
         <v>mental-health|hospital|nzte-report</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>254</v>
@@ -14920,20 +14920,20 @@
         <v>802</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E194" s="1" t="str">
         <f t="shared" si="2"/>
         <v>hospital|referral|nzte-report</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>254</v>
@@ -14965,20 +14965,20 @@
         <v>804</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E195" s="1" t="str">
         <f t="shared" ref="E195:E258" si="3">CONCATENATE(F195, "|", "nzte-report")</f>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>254</v>
@@ -15010,20 +15010,20 @@
         <v>805</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E196" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>254</v>
@@ -15055,20 +15055,20 @@
         <v>806</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E197" s="1" t="str">
         <f t="shared" si="3"/>
         <v>medication|hospital|nzte-report</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>254</v>
@@ -15100,20 +15100,20 @@
         <v>807</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E198" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>254</v>
@@ -15145,20 +15145,20 @@
         <v>809</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E199" s="1" t="str">
         <f t="shared" si="3"/>
         <v>ambulance|hospital|nzte-report</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>254</v>
@@ -15190,20 +15190,20 @@
         <v>812</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E200" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>254</v>
@@ -15235,20 +15235,20 @@
         <v>814</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E201" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>254</v>
@@ -15271,20 +15271,20 @@
         <v>817</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E202" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>254</v>
@@ -15334,20 +15334,20 @@
         <v>826</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E203" s="1" t="str">
         <f t="shared" si="3"/>
         <v>radiology|nzte-report</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>254</v>
@@ -15397,20 +15397,20 @@
         <v>829</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E204" s="1" t="str">
         <f t="shared" si="3"/>
         <v>pharmacy|nzte-report</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>254</v>
@@ -15457,20 +15457,20 @@
         <v>831</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E205" s="1" t="str">
         <f t="shared" si="3"/>
         <v>laboratory|nzte-report</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>254</v>
@@ -15517,20 +15517,20 @@
         <v>833</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E206" s="1" t="str">
         <f t="shared" si="3"/>
         <v>oral|nzte-report</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G206" s="1" t="s">
         <v>254</v>
@@ -15580,20 +15580,20 @@
         <v>836</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E207" s="1" t="str">
         <f t="shared" si="3"/>
         <v>diabetes|cardiology|nzte-report</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="G207" s="1" t="s">
         <v>254</v>
@@ -15640,20 +15640,20 @@
         <v>838</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E208" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>254</v>
@@ -15703,20 +15703,20 @@
         <v>840</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E209" s="1" t="str">
         <f t="shared" si="3"/>
         <v>nephrology|nzte-report</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>254</v>
@@ -15766,20 +15766,20 @@
         <v>843</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E210" s="1" t="str">
         <f t="shared" si="3"/>
         <v>mental-health|nzte-report</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>254</v>
@@ -15829,20 +15829,20 @@
         <v>846</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E211" s="1" t="str">
         <f t="shared" si="3"/>
         <v>gastroenterology|nzte-report</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>254</v>
@@ -15892,20 +15892,20 @@
         <v>848</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E212" s="1" t="str">
         <f t="shared" si="3"/>
         <v>maternity|nzte-report</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>254</v>
@@ -15955,20 +15955,20 @@
         <v>851</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E213" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>254</v>
@@ -16015,20 +16015,20 @@
         <v>855</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E214" s="1" t="str">
         <f t="shared" si="3"/>
         <v>costing|nzte-report</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>254</v>
@@ -16072,20 +16072,20 @@
         <v>858</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E215" s="1" t="str">
         <f t="shared" si="3"/>
         <v>nurse|nzte-report</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>254</v>
@@ -16129,20 +16129,20 @@
         <v>860</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E216" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>254</v>
@@ -16189,20 +16189,20 @@
         <v>862</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E217" s="1" t="str">
         <f t="shared" si="3"/>
         <v>discharge|nzte-report</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>254</v>
@@ -16246,20 +16246,20 @@
         <v>864</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E218" s="1" t="str">
         <f t="shared" si="3"/>
         <v>surgery|nzte-report</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>254</v>
@@ -16303,20 +16303,20 @@
         <v>866</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E219" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|finance|nzte-report</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>254</v>
@@ -16363,20 +16363,20 @@
         <v>870</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E220" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|workforce|nzte-report</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>254</v>
@@ -16423,20 +16423,20 @@
         <v>872</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E221" s="1" t="str">
         <f t="shared" si="3"/>
         <v>laboratory|nzte-report</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>690</v>
@@ -16495,17 +16495,17 @@
         <v>886</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E222" s="1" t="str">
         <f t="shared" si="3"/>
         <v>laboratory|image|nzte-report</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>690</v>
@@ -16528,17 +16528,17 @@
         <v>888</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E223" s="1" t="str">
         <f t="shared" si="3"/>
         <v>primary-care|gp|nzte-report</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>380</v>
@@ -16594,20 +16594,20 @@
         <v>899</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E224" s="1" t="str">
         <f t="shared" si="3"/>
         <v>primary-care|claim|nzte-report</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>380</v>
@@ -16648,17 +16648,17 @@
         <v>907</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E225" s="1" t="str">
         <f t="shared" si="3"/>
         <v>nurse|home-care|nzte-report</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>380</v>
@@ -16693,17 +16693,17 @@
         <v>907</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E226" s="1" t="str">
         <f t="shared" si="3"/>
         <v>nurse|home-care|nzte-report</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>380</v>
@@ -16738,17 +16738,17 @@
         <v>907</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E227" s="1" t="str">
         <f t="shared" si="3"/>
         <v>nurse|home-care|nzte-report</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>380</v>
@@ -16783,17 +16783,17 @@
         <v>907</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E228" s="1" t="str">
         <f t="shared" si="3"/>
         <v>nurse|home-care|nzte-report</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>380</v>
@@ -16828,17 +16828,17 @@
         <v>907</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E229" s="1" t="str">
         <f t="shared" si="3"/>
         <v>nurse|home-care|nzte-report</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>380</v>
@@ -16873,17 +16873,17 @@
         <v>915</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E230" s="1" t="str">
         <f t="shared" si="3"/>
         <v>diabetes|nzte-report</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>394</v>
@@ -16936,20 +16936,20 @@
         <v>927</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>1304</v>
-      </c>
       <c r="D231" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E231" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|nzte-report</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>444</v>
@@ -17008,13 +17008,13 @@
         <v>940</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E232" s="1" t="str">
         <f t="shared" si="3"/>
@@ -17068,10 +17068,10 @@
         <v>381</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E233" s="1" t="str">
         <f t="shared" si="3"/>
@@ -17122,20 +17122,20 @@
         <v>946</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>1304</v>
-      </c>
       <c r="D234" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E234" s="1" t="str">
         <f t="shared" si="3"/>
         <v>hospital|trial|nzte-report</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>394</v>
@@ -17158,17 +17158,17 @@
         <v>915</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E235" s="1" t="str">
         <f t="shared" si="3"/>
         <v>diabetes|nzte-report</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>394</v>
@@ -17227,17 +17227,17 @@
         <v>915</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E236" s="1" t="str">
         <f t="shared" si="3"/>
         <v>diabetes|nzte-report</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>394</v>
@@ -17290,20 +17290,20 @@
         <v>969</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E237" s="1" t="str">
         <f t="shared" si="3"/>
         <v>cardiology|nzte-report</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>394</v>
@@ -17359,13 +17359,13 @@
         <v>981</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E238" s="1" t="str">
         <f t="shared" si="3"/>
@@ -17434,17 +17434,17 @@
         <v>432</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E239" s="1" t="str">
         <f t="shared" si="3"/>
         <v>cardiology|nzte-report</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>394</v>
@@ -17479,17 +17479,17 @@
         <v>432</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E240" s="1" t="str">
         <f t="shared" si="3"/>
         <v>cardiology|nzte-report</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>394</v>
@@ -17524,17 +17524,17 @@
         <v>432</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E241" s="1" t="str">
         <f t="shared" si="3"/>
         <v>blood-donation|nzte-report</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>394</v>
@@ -17566,17 +17566,17 @@
         <v>432</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E242" s="1" t="str">
         <f t="shared" si="3"/>
         <v>radiology|nzte-report</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>394</v>
@@ -17608,17 +17608,17 @@
         <v>432</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E243" s="1" t="str">
         <f t="shared" si="3"/>
         <v>cardiology|nzte-report</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>394</v>
@@ -17650,17 +17650,17 @@
         <v>432</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E244" s="1" t="str">
         <f t="shared" si="3"/>
         <v>tobacco|smoking|addiction|nzte-report</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>394</v>
@@ -17692,17 +17692,17 @@
         <v>432</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E245" s="1" t="str">
         <f t="shared" si="3"/>
         <v>cholesterol|nzte-report</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>394</v>
@@ -17734,17 +17734,17 @@
         <v>432</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E246" s="1" t="str">
         <f t="shared" si="3"/>
         <v>research|nzte-report</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>394</v>
@@ -17776,17 +17776,17 @@
         <v>432</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E247" s="1" t="str">
         <f t="shared" si="3"/>
         <v>tobacco|smoking|addiction|nzte-report</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>394</v>
@@ -17818,17 +17818,17 @@
         <v>432</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E248" s="1" t="str">
         <f t="shared" si="3"/>
         <v>tobacco|smoking|addiction|nzte-report</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>394</v>
@@ -17860,17 +17860,17 @@
         <v>432</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E249" s="1" t="str">
         <f t="shared" si="3"/>
         <v>nutrition|nzte-report</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>394</v>
@@ -17902,17 +17902,17 @@
         <v>432</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E250" s="1" t="str">
         <f t="shared" si="3"/>
         <v>stroke|nzte-report</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>394</v>
@@ -17944,17 +17944,17 @@
         <v>432</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E251" s="1" t="str">
         <f t="shared" si="3"/>
         <v>tobacco|smoking|addiction|nzte-report</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>394</v>
@@ -17986,17 +17986,17 @@
         <v>432</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E252" s="1" t="str">
         <f t="shared" si="3"/>
         <v>social|research|qol|lifstyle|nzte-report</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>394</v>
@@ -18028,17 +18028,17 @@
         <v>432</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E253" s="1" t="str">
         <f t="shared" si="3"/>
         <v>tobacco|smoking|cardiology|nzte-report</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>394</v>
@@ -18070,17 +18070,17 @@
         <v>432</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E254" s="1" t="str">
         <f t="shared" si="3"/>
         <v>research|nzte-report</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>394</v>
@@ -18112,17 +18112,17 @@
         <v>432</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E255" s="1" t="str">
         <f t="shared" si="3"/>
         <v>mental-health|hospital|nzte-report</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>394</v>
@@ -18154,17 +18154,17 @@
         <v>432</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E256" s="1" t="str">
         <f t="shared" si="3"/>
         <v>nutrition|nzte-report</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>394</v>
@@ -18196,17 +18196,17 @@
         <v>432</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E257" s="1" t="str">
         <f t="shared" si="3"/>
         <v>tobacco|smoking|addiction|alcohol|nzte-report</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>394</v>
@@ -18238,17 +18238,17 @@
         <v>432</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E258" s="1" t="str">
         <f t="shared" si="3"/>
         <v>barthel-index|research|adl|nzte-report</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>394</v>
@@ -18280,17 +18280,17 @@
         <v>432</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E259" s="1" t="str">
         <f t="shared" ref="E259:E287" si="4">CONCATENATE(F259, "|", "nzte-report")</f>
         <v>qol|research|cardiology|nzte-report</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>394</v>
@@ -18322,17 +18322,17 @@
         <v>432</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E260" s="1" t="str">
         <f t="shared" si="4"/>
         <v>tobacco|smoking|addiction|nzte-report</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>394</v>
@@ -18364,17 +18364,17 @@
         <v>432</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E261" s="1" t="str">
         <f t="shared" si="4"/>
         <v>freemasons|research|nzte-report</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>394</v>
@@ -18406,17 +18406,17 @@
         <v>432</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E262" s="1" t="str">
         <f t="shared" si="4"/>
         <v>car-crash|nzte-report</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>394</v>
@@ -18448,17 +18448,17 @@
         <v>432</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E263" s="1" t="str">
         <f t="shared" si="4"/>
         <v>stroke|nzte-report</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>394</v>
@@ -18490,17 +18490,17 @@
         <v>432</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E264" s="1" t="str">
         <f t="shared" si="4"/>
         <v>sleep|nzte-report</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>394</v>
@@ -18532,17 +18532,17 @@
         <v>432</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E265" s="1" t="str">
         <f t="shared" si="4"/>
         <v>mental-health|nzte-report</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>394</v>
@@ -18574,17 +18574,17 @@
         <v>432</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E266" s="1" t="str">
         <f t="shared" si="4"/>
         <v>nutrition|nzte-report</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>394</v>
@@ -18616,17 +18616,17 @@
         <v>432</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E267" s="1" t="str">
         <f t="shared" si="4"/>
         <v>steroid|research|nzte-report</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>394</v>
@@ -18658,17 +18658,17 @@
         <v>432</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E268" s="1" t="str">
         <f t="shared" si="4"/>
         <v>qol|research|nzte-report</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>394</v>
@@ -18700,17 +18700,17 @@
         <v>432</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E269" s="1" t="str">
         <f t="shared" si="4"/>
         <v>radiology|research|nzte-report</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>394</v>
@@ -18742,17 +18742,17 @@
         <v>432</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E270" s="1" t="str">
         <f t="shared" si="4"/>
         <v>blood-donation|nzte-report</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>394</v>
@@ -18784,17 +18784,17 @@
         <v>432</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E271" s="1" t="str">
         <f t="shared" si="4"/>
         <v>ulcer|medication|nzte-report</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>394</v>
@@ -18826,17 +18826,17 @@
         <v>432</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E272" s="1" t="str">
         <f t="shared" si="4"/>
         <v>nephrology|nzte-report</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>394</v>
@@ -18868,17 +18868,17 @@
         <v>432</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E273" s="1" t="str">
         <f t="shared" si="4"/>
         <v>sport|global-health|nzte-report</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>394</v>
@@ -18910,17 +18910,17 @@
         <v>432</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E274" s="1" t="str">
         <f t="shared" si="4"/>
         <v>nutrition|nzte-report</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>394</v>
@@ -18952,17 +18952,17 @@
         <v>432</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E275" s="1" t="str">
         <f t="shared" si="4"/>
         <v>adherence|research|nzte-report</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>394</v>
@@ -18994,17 +18994,17 @@
         <v>432</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E276" s="1" t="str">
         <f t="shared" si="4"/>
         <v>medication|nzte-report</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>394</v>
@@ -19036,17 +19036,17 @@
         <v>432</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E277" s="1" t="str">
         <f t="shared" si="4"/>
         <v>social|research|nzte-report</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>394</v>
@@ -19078,17 +19078,17 @@
         <v>432</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E278" s="1" t="str">
         <f t="shared" si="4"/>
         <v>asthma|nzte-report</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>394</v>
@@ -19120,17 +19120,17 @@
         <v>432</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E279" s="1" t="str">
         <f t="shared" si="4"/>
         <v>nutrition|research|nzte-report</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>394</v>
@@ -19162,17 +19162,17 @@
         <v>432</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E280" s="1" t="str">
         <f t="shared" si="4"/>
         <v>stroke|nzte-report</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>394</v>
@@ -19204,17 +19204,17 @@
         <v>432</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E281" s="1" t="str">
         <f t="shared" si="4"/>
         <v>research|nzte-report</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>394</v>
@@ -19246,17 +19246,17 @@
         <v>432</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E282" s="1" t="str">
         <f t="shared" si="4"/>
         <v>addiction|research|nzte-report</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>394</v>
@@ -19288,17 +19288,17 @@
         <v>432</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E283" s="1" t="str">
         <f t="shared" si="4"/>
         <v>stroke|nzte-report</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>394</v>
@@ -19330,17 +19330,17 @@
         <v>432</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E284" s="1" t="str">
         <f t="shared" si="4"/>
         <v>adherence|research|nzte-report</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>394</v>
@@ -19372,17 +19372,17 @@
         <v>432</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E285" s="1" t="str">
         <f t="shared" si="4"/>
         <v>sport|lifestyle|research|nzte-report</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>394</v>
@@ -19414,17 +19414,17 @@
         <v>432</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E286" s="1" t="str">
         <f t="shared" si="4"/>
         <v>qol|research|nzte-report</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>394</v>
@@ -19456,17 +19456,17 @@
         <v>432</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="E287" s="1" t="str">
         <f t="shared" si="4"/>
         <v>nutrition|nzte-report</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>394</v>
